--- a/DaySale_2025-05-27_21-15.xlsx
+++ b/DaySale_2025-05-27_21-15.xlsx
@@ -161,6 +161,24 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>C-RETARD 500MG 10 CAPS</t>
   </si>
   <si>
@@ -314,6 +332,18 @@
     <t>17.00</t>
   </si>
   <si>
+    <t>HIPAMAX PLUS 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>IRUXOL TOPICAL OINT. 15 GM</t>
   </si>
   <si>
@@ -323,6 +353,12 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -338,6 +374,18 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>MEPAFURAN 50 MG 20 CAPS</t>
   </si>
   <si>
@@ -365,6 +413,27 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PANGESTAZOL 40MG 14 TABS.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PANOX 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -419,9 +488,6 @@
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>144.0000</t>
   </si>
   <si>
@@ -453,9 +519,6 @@
   </si>
   <si>
     <t>-70.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -1498,7 +1561,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1508,11 +1571,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1524,14 +1587,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1541,11 +1604,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1557,31 +1620,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1590,14 +1653,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1607,14 +1670,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1623,31 +1686,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1656,14 +1719,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1673,14 +1736,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1689,14 +1752,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1706,14 +1769,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1722,14 +1785,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1739,14 +1802,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1755,14 +1818,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1772,14 +1835,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1788,14 +1851,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1805,14 +1868,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1828,7 +1891,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1845,7 +1908,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1861,7 +1924,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1878,7 +1941,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1894,7 +1957,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1908,10 +1971,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1927,7 +1990,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1937,11 +2000,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>40</v>
@@ -1953,14 +2016,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1970,14 +2033,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1986,14 +2049,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2003,14 +2066,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2019,14 +2082,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2040,10 +2103,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2052,14 +2115,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2069,11 +2132,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2085,14 +2148,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2106,10 +2169,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2118,14 +2181,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2135,11 +2198,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2151,31 +2214,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2191,24 +2254,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2217,14 +2280,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2234,14 +2297,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2250,14 +2313,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2290,7 +2353,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2300,14 +2363,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2316,31 +2379,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2356,7 +2419,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2366,14 +2429,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2382,14 +2445,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2399,14 +2462,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2415,14 +2478,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,14 +2495,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2455,7 +2518,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2469,10 +2532,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2481,14 +2544,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,14 +2561,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2514,7 +2577,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2531,14 +2594,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2547,14 +2610,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,14 +2627,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2580,14 +2643,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2597,14 +2660,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2613,14 +2676,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2630,14 +2693,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2646,31 +2709,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2679,31 +2742,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2712,31 +2775,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2745,7 +2808,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2758,18 +2821,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2778,31 +2841,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>129</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2811,28 +2874,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2844,31 +2907,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2877,31 +2940,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2910,14 +2973,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2927,11 +2990,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2950,7 +3013,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2960,11 +3023,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -2976,14 +3039,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2993,14 +3056,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3009,7 +3072,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3026,49 +3089,313 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2375.6999999999998</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>183</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>184</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>185</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>188</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>28</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>33</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>189</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>191</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>21</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>33</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>189</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>193</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>18</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>33</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>194</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>196</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>197</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>33</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>180</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>28</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>33</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>176</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>199</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>152</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>33</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>176</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>200</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>201</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>33</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>176</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>202</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>28</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>33</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>96</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3075.6999999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>204</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>205</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>206</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3357,10 +3684,50 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
